--- a/data_year/zb/固定资产投资和房地产/民间固定资产（不含农户）投资额及增速.xlsx
+++ b/data_year/zb/固定资产投资和房地产/民间固定资产（不含农户）投资额及增速.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
         <v>184661.936383916</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1456977291708</v>
+        <v>20.1</v>
       </c>
       <c r="D3" t="n">
         <v>57.9292278020046</v>
@@ -490,7 +490,7 @@
         <v>213811.113137066</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7851570951516</v>
+        <v>15.8</v>
       </c>
       <c r="D4" t="n">
         <v>58.9204250877469</v>
@@ -506,7 +506,7 @@
         <v>232644.220483217</v>
       </c>
       <c r="C5" t="n">
-        <v>8.808292080719809</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>58.8201567803647</v>
@@ -522,7 +522,7 @@
         <v>239136.729774013</v>
       </c>
       <c r="C6" t="n">
-        <v>2.79074600577252</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
         <v>56.3471986829378</v>
@@ -538,7 +538,7 @@
         <v>251649.914901207</v>
       </c>
       <c r="C7" t="n">
-        <v>5.23264876082361</v>
+        <v>5.2</v>
       </c>
       <c r="D7" t="n">
         <v>55.7081221544571</v>
@@ -591,6 +591,36 @@
       <c r="D10" t="n">
         <v>55.744863723172</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>307659</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>310145</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
